--- a/biology/Zoologie/Eucyclidae/Eucyclidae.xlsx
+++ b/biology/Zoologie/Eucyclidae/Eucyclidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eucyclidae sont une famille de mollusques gastéropodes de l'ordre des Vetigastropoda.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Eucyclidae a été créée en 1896 par le paléontologue allemand Ernst von Koken[1] (1860-1912).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Eucyclidae a été créée en 1896 par le paléontologue allemand Ernst von Koken (1860-1912).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (27 mars 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (27 mars 2022) :
 genre † Amberleya J. Morris &amp; Lycett, 1851
 genre Bathybembix Crosse, 1893
 genre † Calliomphalus Cossmann, 1888
@@ -559,9 +575,43 @@
 genre Spinicalliotropis Poppe, Tagaro &amp; Dekker, 2006
 genre Tibatrochus Nomura, 1940
 genre Toroidia Hoffman &amp; Freiwald, 2018
-genre Turcica Adams &amp; Adams, 1854
-Synonymie
-Bembix R. B. Watson, 1879 = Bathybembix Crosse, 1893
+genre Turcica Adams &amp; Adams, 1854</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eucyclidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eucyclidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bembix R. B. Watson, 1879 = Bathybembix Crosse, 1893
 Convexia Noda, 1975 = Ginebis Is. Taki &amp; Otuka, 1943
 Mazastele Iredale, 1936 = Calliotropis Seguenza, 1903
 Ptychostylis Gabb, 1865 = Turcica Adams &amp; Adams, 1854
@@ -571,31 +621,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Eucyclidae</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Eucyclidae</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(de) Koken E., 1896 : « Die Gastropoden der Trias um Hallstadt ». Jahrbuch der Kaiserlich-Königlichen Geologischen Reichsanstalt, vol. 46, n. 1, p. 37−126.</t>
         </is>
